--- a/Planetarium RTM.xlsx
+++ b/Planetarium RTM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="251">
   <si>
     <t>ID</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>Steps</t>
-  </si>
-  <si>
-    <t>check if the planet exists first before creating the moon, user experience featuer</t>
   </si>
   <si>
     <t>Positive</t>
@@ -154,9 +151,6 @@
     </r>
   </si>
   <si>
-    <t>moon deletion not mentioned in the requirements</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <rFont val="Aptos Narrow"/>
@@ -491,7 +485,7 @@
         <b val="0"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> the user submits the credentials</t>
+      <t xml:space="preserve"> the user submits the credentials for log in</t>
     </r>
   </si>
   <si>
@@ -552,7 +546,15 @@
         <b/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> "&lt;username&gt;"</t>
+      <t xml:space="preserve"> "&lt;username&gt;" </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="0"/>
+        <color theme="1"/>
+      </rPr>
+      <t>for log in</t>
     </r>
   </si>
   <si>
@@ -577,7 +579,14 @@
         <b/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> "&lt;password&gt;"</t>
+      <t xml:space="preserve"> "&lt;password&gt;" </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>for log in</t>
     </r>
   </si>
   <si>
@@ -595,7 +604,7 @@
         <b val="0"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> the user submits the credentials</t>
+      <t xml:space="preserve"> the user submits the credentials for log in</t>
     </r>
   </si>
   <si>
@@ -613,7 +622,7 @@
         <b val="0"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> the user should get a browser alert saying "Invalid Credentials"</t>
+      <t xml:space="preserve"> the user should get a browser alert saying Invalid credentials</t>
     </r>
   </si>
   <si>
@@ -839,6 +848,24 @@
         <b/>
         <color theme="1"/>
       </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="0"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> the user selects planet from the dropdown</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
       <t>When</t>
     </r>
     <r>
@@ -891,15 +918,178 @@
         <b/>
         <color theme="1"/>
       </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> the user should see the created planet on home page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Given </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>the user is logged in on the home page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">And </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>the user selects planet from the dropdown</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">When </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>the user provides planet name</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> "&lt;planet name&gt;"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">And </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>the user provides file type</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> "&lt;file type&gt;"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">And </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>the user submits the planet data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">the user should get a browser alert saying </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>"&lt;alert&gt;"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
       <t>And</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> the user should stay on the home page</t>
+    </r>
+  </si>
+  <si>
+    <t>US4-2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
         <b val="0"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> the user refreshes the page</t>
+      <t xml:space="preserve"> the user is logged in on the home page</t>
     </r>
   </si>
   <si>
@@ -909,6 +1099,76 @@
         <b/>
         <color theme="1"/>
       </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="0"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> the user selects moon from the dropdown</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="0"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> the user provides a valid moon name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">And </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>the user provides a valid planet ID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">And </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>the user submits the moon data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
       <t>Then</t>
     </r>
     <r>
@@ -916,7 +1176,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> the user should see the created planet on home page</t>
+      <t xml:space="preserve"> the user should see the created moon on home page</t>
     </r>
   </si>
   <si>
@@ -943,6 +1203,23 @@
         <b/>
         <color theme="1"/>
       </rPr>
+      <t xml:space="preserve">And </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>the user selects moon from the dropdown</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
       <t xml:space="preserve">When </t>
     </r>
     <r>
@@ -950,7 +1227,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t>the user provides planet name</t>
+      <t>the user provides moon name</t>
     </r>
     <r>
       <rPr>
@@ -958,7 +1235,7 @@
         <b/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> "&lt;planet name&gt;"</t>
+      <t xml:space="preserve"> "&lt;moon name&gt;"</t>
     </r>
   </si>
   <si>
@@ -975,7 +1252,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t>the user provides file type</t>
+      <t>the user provides planet ID</t>
     </r>
     <r>
       <rPr>
@@ -983,7 +1260,7 @@
         <b/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> "&lt;file type&gt;"</t>
+      <t xml:space="preserve"> "&lt;planet ID&gt;"</t>
     </r>
   </si>
   <si>
@@ -1000,7 +1277,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t>the user submits the planet data</t>
+      <t>the user submits the moon data</t>
     </r>
   </si>
   <si>
@@ -1046,7 +1323,7 @@
     </r>
   </si>
   <si>
-    <t>US4-2</t>
+    <t>US5-1</t>
   </si>
   <si>
     <r>
@@ -1073,7 +1350,24 @@
         <b/>
         <color theme="1"/>
       </rPr>
-      <t>When</t>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> the user provides valid moon name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">And </t>
     </r>
     <r>
       <rPr>
@@ -1081,7 +1375,7 @@
         <b val="0"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> the user provides a valid moon name</t>
+      <t xml:space="preserve">the user clicks the delete button </t>
     </r>
   </si>
   <si>
@@ -1091,6 +1385,41 @@
         <b/>
         <color theme="1"/>
       </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="0"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> the user should see the updated home page with the moon deleted</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Given </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>the user is logged in on the home page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
       <t xml:space="preserve">And </t>
     </r>
     <r>
@@ -1098,16 +1427,24 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t>the user provides a valid planet ID</t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve">the user provides moon name </t>
+    </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
         <b/>
         <color theme="1"/>
       </rPr>
+      <t>"&lt;moon name&gt;"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
       <t xml:space="preserve">And </t>
     </r>
     <r>
@@ -1115,7 +1452,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t>the user submits the moon data</t>
+      <t xml:space="preserve">the user clicks the delete button </t>
     </r>
   </si>
   <si>
@@ -1125,15 +1462,52 @@
         <b/>
         <color theme="1"/>
       </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>the user should get a browser alert saying "Invalid moon name"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
       <t>And</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> the user should stay on the home page</t>
+    </r>
+  </si>
+  <si>
+    <t>US5-2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
         <b val="0"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> the user refreshes the page</t>
+      <t xml:space="preserve"> the user is logged in on the home page</t>
     </r>
   </si>
   <si>
@@ -1143,14 +1517,67 @@
         <b/>
         <color theme="1"/>
       </rPr>
+      <t xml:space="preserve">And </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="0"/>
+        <color theme="1"/>
+      </rPr>
+      <t>the user selects planet from the dropdown</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> the user provides valid planet name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">And </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">the user clicks the delete button </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
       <t>Then</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> the user should see the created moon on home page</t>
+        <b val="0"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> the user should see the updated home page with the planet deleted</t>
     </r>
   </si>
   <si>
@@ -1177,31 +1604,48 @@
         <b/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve">When </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>the user provides moon name</t>
-    </r>
+      <t xml:space="preserve">And </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>the user selects planet from the dropdown</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
         <b/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> "&lt;moon name&gt;"</t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve">And </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">the user provides planet name </t>
+    </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
         <b/>
         <color theme="1"/>
       </rPr>
+      <t>"&lt;planet name&gt;"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
       <t xml:space="preserve">And </t>
     </r>
     <r>
@@ -1209,41 +1653,16 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t>the user provides planet ID</t>
-    </r>
+      <t xml:space="preserve">the user clicks the delete button </t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
         <b/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> "&lt;planet ID&gt;"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">And </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>the user submits the moon data</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
       <t xml:space="preserve">Then </t>
     </r>
     <r>
@@ -1251,451 +1670,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve">the user should get a browser alert saying </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>"&lt;alert&gt;"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>And</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> the user should stay on the home page</t>
-    </r>
-  </si>
-  <si>
-    <t>US5-1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> the user is logged in on the home page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> the user clicks moon deletion button </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>And</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> the user provides valid moon name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>And</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> the user submits the moon data</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>And</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> the user refreshes the page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> the user should see the updated home page with the moon deleted</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">Given </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>the user is logged in on the home page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">When </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">the user clicks moon deletion button </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">And </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">the user provides moon name </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>"&lt;moon name&gt;"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">And </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>the user submits the moon data</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">Then </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>the user should get a browser alert saying "invalid moon name"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>And</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> the user should stay on the home page</t>
-    </r>
-  </si>
-  <si>
-    <t>US5-2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> the user is logged in on the home page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> the user clicks planet deletion button </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>And</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> the user provides valid planet name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>And</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> the user submits the planet data</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>And</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> the user refreshes the page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> the user should see the updated home page with the planet deleted</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">Given </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>the user is logged in on the home page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">When </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">the user clicks planet deletion button </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">And </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">the user provides planet name </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>"&lt;planet name&gt;"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">And </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>the user submits the planet data</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">Then </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>the user should get a browser alert saying "invalid planet name"</t>
+      <t>the user should get a browser alert saying "Invalid planet name"</t>
     </r>
   </si>
   <si>
@@ -2139,6 +2114,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <b/>
       <color theme="1"/>
@@ -2155,7 +2131,6 @@
       <color rgb="FF000000"/>
       <name val="&quot;Aptos Narrow&quot;"/>
     </font>
-    <font/>
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -2228,12 +2203,72 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
     <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
     </border>
     <border>
       <left style="thin">
@@ -2244,7 +2279,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="70">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2270,90 +2305,126 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" textRotation="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="3" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="3" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="3" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="3" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2362,49 +2433,49 @@
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="8" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="9" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="8" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -5268,7 +5339,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="9.5"/>
     <col customWidth="1" min="2" max="2" width="15.75"/>
-    <col customWidth="1" min="3" max="3" width="37.0"/>
+    <col customWidth="1" min="3" max="3" width="38.38"/>
     <col customWidth="1" min="4" max="26" width="8.63"/>
   </cols>
   <sheetData>
@@ -5282,500 +5353,620 @@
       <c r="C1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="E1" s="8"/>
     </row>
     <row r="2">
       <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="8" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3">
-      <c r="C3" s="14" t="s">
+    <row r="5">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4">
-      <c r="C4" s="14" t="s">
+    <row r="6">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5">
-      <c r="C5" s="15" t="s">
+    <row r="7">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6">
-      <c r="C6" s="14" t="s">
+    <row r="8">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7">
-      <c r="C7" s="14" t="s">
+    <row r="9">
+      <c r="A9" s="15"/>
+      <c r="B9" s="18" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="C8" s="14" t="s">
+      <c r="C9" s="19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="16" t="s">
+    <row r="10">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="17" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10">
-      <c r="C10" s="17" t="s">
+    <row r="12">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11">
-      <c r="C11" s="17" t="s">
+    <row r="13">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12">
-      <c r="C12" s="18" t="s">
+    <row r="14">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13">
-      <c r="C13" s="17" t="s">
+    <row r="15">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14">
-      <c r="C14" s="17" t="s">
+    <row r="16">
+      <c r="A16" s="24" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="C15" s="19" t="s">
+      <c r="B16" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="20" t="s">
+    <row r="17">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="22" t="s">
+    </row>
+    <row r="18">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="27" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17">
-      <c r="C17" s="23" t="s">
+    <row r="19">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="28" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18">
-      <c r="C18" s="23" t="s">
+    <row r="20">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="27" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19">
-      <c r="C19" s="24" t="s">
+    <row r="21">
+      <c r="A21" s="16"/>
+      <c r="B21" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="29" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20">
-      <c r="C20" s="23" t="s">
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21">
-      <c r="B21" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="19" t="s">
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="C22" s="17" t="s">
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="C23" s="18" t="s">
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="C24" s="17" t="s">
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="C25" s="17" t="s">
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="30" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="C26" s="17" t="s">
+      <c r="B27" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="20" t="s">
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="16"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="22" t="s">
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="16"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="26" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="C28" s="22" t="s">
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="16"/>
+      <c r="B30" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="C29" s="22" t="s">
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="22"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="34" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="B30" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="25" t="s">
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="28" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="C31" s="25" t="s">
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="28" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="24" t="s">
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="15"/>
+      <c r="B34" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="C33" s="24" t="s">
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="18" t="s">
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="21"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="37" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="C35" s="17" t="s">
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="30" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="C36" s="17" t="s">
+      <c r="B37" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="28" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="20" t="s">
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="24" t="s">
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="28" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="C38" s="24" t="s">
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="26" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="C39" s="22" t="s">
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="26" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="C40" s="22" t="s">
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="27" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="C41" s="24" t="s">
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="16"/>
+      <c r="B43" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="33" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="C42" s="23" t="s">
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="33" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="25" t="s">
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="33" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="C44" s="25" t="s">
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="33" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="C45" s="25" t="s">
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="33" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="C46" s="25" t="s">
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="33" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="C47" s="25" t="s">
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="34" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="C48" s="25" t="s">
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="39" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="20" t="s">
+      <c r="B50" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C49" s="24" t="s">
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="15"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="28" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="C50" s="24" t="s">
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="15"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="28" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="C51" s="22" t="s">
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="15"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="26" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="C52" s="22" t="s">
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="15"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="26" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="C53" s="24" t="s">
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="15"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="27" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="C54" s="23" t="s">
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="15"/>
+      <c r="B56" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="33" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="B55" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C55" s="25" t="s">
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="15"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="33" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="C56" s="25" t="s">
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="15"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="33" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="C57" s="25" t="s">
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="15"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="33" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="C58" s="25" t="s">
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="15"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="33" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="C59" s="25" t="s">
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="15"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="33" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="C60" s="25" t="s">
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="21"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="34" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="26" t="s">
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="B61" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C61" s="24" t="s">
+      <c r="B63" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" s="28" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="C62" s="24" t="s">
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="B64" s="15"/>
+      <c r="C64" s="27" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="C63" s="23" t="s">
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="B65" s="15"/>
+      <c r="C65" s="28" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="C64" s="22" t="s">
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="B66" s="15"/>
+      <c r="C66" s="28" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="C65" s="23" t="s">
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="B67" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" s="33" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="C66" s="24" t="s">
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="B68" s="15"/>
+      <c r="C68" s="33" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="B67" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C67" s="25" t="s">
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="B69" s="15"/>
+      <c r="C69" s="33" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="C68" s="25" t="s">
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="B70" s="15"/>
+      <c r="C70" s="33" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="C69" s="25" t="s">
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="B71" s="15"/>
+      <c r="C71" s="33" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="C70" s="25" t="s">
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="35" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="C71" s="25" t="s">
+      <c r="B72" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C72" s="28" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="C72" s="25" t="s">
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="15"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="28" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="26" t="s">
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="15"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="B73" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C73" s="24" t="s">
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="15"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="26" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="C74" s="24" t="s">
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="15"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="28" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="C75" s="23" t="s">
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="15"/>
+      <c r="B77" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77" s="33" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
-      <c r="C76" s="22" t="s">
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="15"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="33" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
-      <c r="C77" s="23" t="s">
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="15"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="33" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
-      <c r="C78" s="24" t="s">
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="15"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="33" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
-      <c r="B79" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C79" s="25" t="s">
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="15"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="33" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="C80" s="25" t="s">
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="21"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="34" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
-      <c r="C81" s="25" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
-      <c r="C82" s="25" t="s">
-        <v>126</v>
-      </c>
-    </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="C83" s="25" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
-      <c r="C84" s="25" t="s">
-        <v>128</v>
-      </c>
-    </row>
+      <c r="A83" s="41"/>
+    </row>
+    <row r="84" ht="15.75" customHeight="1"/>
     <row r="85" ht="15.75" customHeight="1"/>
     <row r="86" ht="15.75" customHeight="1"/>
     <row r="87" ht="15.75" customHeight="1"/>
@@ -6695,8 +6886,13 @@
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
     <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
+    <row r="1005" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="A63:A71"/>
+    <mergeCell ref="A72:A82"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="A2:A15"/>
@@ -6706,24 +6902,21 @@
     <mergeCell ref="B16:B20"/>
     <mergeCell ref="B21:B26"/>
     <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="A61:A72"/>
-    <mergeCell ref="B61:B66"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="A73:A84"/>
-    <mergeCell ref="B73:B78"/>
-    <mergeCell ref="B79:B84"/>
     <mergeCell ref="A32:A36"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B34:B36"/>
-    <mergeCell ref="A37:A48"/>
     <mergeCell ref="B37:B42"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="A49:A60"/>
+    <mergeCell ref="A37:A49"/>
+    <mergeCell ref="B43:B49"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="A50:A62"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B77:B82"/>
+    <mergeCell ref="B72:B76"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2 B9 B16 B21 B27 B30 B32 B34 B37 B43 B49 B55 B61 B67 B73 B79">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2 B9 B16 B21 B27 B30 B32 B34 B37 B43 B50 B56 B63 B67 B72 B77">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6755,7 +6948,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2">
@@ -6763,7 +6956,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
@@ -6771,7 +6964,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4">
@@ -6779,12 +6972,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -7804,1110 +7997,1110 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="28" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="30" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="16"/>
+      <c r="J1" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="16"/>
+      <c r="M1" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="O1" s="29"/>
-      <c r="P1" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="R1" s="29"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="R1" s="16"/>
     </row>
     <row r="2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" s="16"/>
+      <c r="J2" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="L2" s="16"/>
+      <c r="M2" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="O2" s="16"/>
+      <c r="P2" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="R2" s="16"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" s="16"/>
+      <c r="J3" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="K3" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="32" t="s">
+      <c r="L3" s="16"/>
+      <c r="M3" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="N3" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="G2" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="O2" s="29"/>
-      <c r="P2" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="R2" s="29"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="34" t="s">
+      <c r="O3" s="16"/>
+      <c r="P3" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q3" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="R3" s="16"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B4" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="34" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="G3" s="35" t="s">
+      <c r="E4" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="K4" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="L4" s="16"/>
+      <c r="M4" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="N4" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="O4" s="16"/>
+      <c r="P4" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q4" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="R4" s="16"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="I5" s="16"/>
+      <c r="J5" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="L5" s="16"/>
+      <c r="M5" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="O5" s="16"/>
+      <c r="P5" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="R5" s="16"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="H6" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="K6" s="53">
+        <v>1.0</v>
+      </c>
+      <c r="L6" s="16"/>
+      <c r="M6" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="N6" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="O6" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="P6" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q6" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="R6" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="L7" s="16"/>
+      <c r="M7" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="N7" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="O7" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="P7" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q7" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="R7" s="59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="I8" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="K8" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="L8" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="M8" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="O8" s="16"/>
+      <c r="P8" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="R8" s="16"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" s="63"/>
+      <c r="I9" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="K9" s="63"/>
+      <c r="L9" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="N9" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="O9" s="16"/>
+      <c r="P9" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q9" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="R9" s="16"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="I10" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="K10" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="L10" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="N10" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="O10" s="16"/>
+      <c r="P10" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q10" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="R10" s="16"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="I11" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="K11" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="L11" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="N11" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="O11" s="16"/>
+      <c r="P11" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q11" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="R11" s="16"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="H12" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="I12" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="K12" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="L12" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="54"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="I13" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="J13" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="K13" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="L13" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="M13" s="54"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="H3" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="34" t="s">
+      <c r="E14" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="H14" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="I14" s="59" t="s">
+        <v>199</v>
+      </c>
+      <c r="J14" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="K14" s="53">
+        <v>3.0</v>
+      </c>
+      <c r="L14" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="54"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="E15" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="G15" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="L15" s="16"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="G16" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="H16" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="I16" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="J16" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="K16" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="L16" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="F17" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="G17" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="L3" s="29"/>
-      <c r="M3" s="35" t="s">
+      <c r="H17" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="I17" s="66" t="s">
+        <v>208</v>
+      </c>
+      <c r="J17" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="K17" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="L17" s="66" t="s">
+        <v>209</v>
+      </c>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="B18" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="E18" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="H18" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="I18" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="J18" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="K18" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="L18" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="63"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="E19" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="H19" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="I19" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="J19" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="K19" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="L19" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="63"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="G20" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="H20" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="I20" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="J20" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="K20" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="L20" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="63"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="H21" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="I21" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="J21" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="K21" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="L21" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="H22" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="I22" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="J22" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="K22" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="L22" s="59" t="s">
+        <v>225</v>
+      </c>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="63"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="69"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="N3" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="O3" s="29"/>
-      <c r="P3" s="34" t="s">
+      <c r="B24" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>226</v>
+      </c>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="69"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="69"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="69"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="69"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="B28" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="69"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="69"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="Q3" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="R3" s="29"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="K4" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="L4" s="29"/>
-      <c r="M4" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="N4" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="O4" s="29"/>
-      <c r="P4" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q4" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="R4" s="29"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="34" t="s">
+      <c r="B30" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="69"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="34" t="s">
+      <c r="B31" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="C31" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="69"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="G5" s="35" t="s">
+      <c r="B32" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="C32" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="69"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="34" t="s">
+      <c r="B33" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="C33" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="69"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="K5" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="L5" s="29"/>
-      <c r="M5" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="O5" s="29"/>
-      <c r="P5" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="R5" s="29"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="K6" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="L6" s="29"/>
-      <c r="M6" s="35" t="s">
+      <c r="B34" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="C34" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="69"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="N6" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="O6" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="P6" s="34" t="s">
+      <c r="B35" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="C35" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="69"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="Q6" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="R6" s="44" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="L7" s="29"/>
-      <c r="M7" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="N7" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="O7" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="P7" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q7" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="R7" s="45" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="I8" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="L8" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="M8" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="O8" s="29"/>
-      <c r="P8" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="R8" s="29"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="H9" s="49"/>
-      <c r="I9" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="K9" s="49"/>
-      <c r="L9" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="N9" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="O9" s="29"/>
-      <c r="P9" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q9" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="R9" s="29"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="H10" s="51" t="s">
-        <v>176</v>
-      </c>
-      <c r="I10" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="K10" s="51" t="s">
-        <v>178</v>
-      </c>
-      <c r="L10" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="N10" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="O10" s="29"/>
-      <c r="P10" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q10" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="R10" s="29"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="H11" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="I11" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="K11" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="L11" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="N11" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="O11" s="29"/>
-      <c r="P11" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q11" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="R11" s="29"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="H12" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="I12" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="K12" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="L12" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="40"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="I13" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="J13" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="K13" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="L13" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="M13" s="40"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="H14" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="I14" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="J14" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="K14" s="39">
-        <v>3.0</v>
-      </c>
-      <c r="L14" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="40"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="L15" s="29"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="G16" s="50" t="s">
-        <v>171</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="I16" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="J16" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="K16" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="L16" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="H17" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="I17" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="J17" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="K17" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="L17" s="52" t="s">
-        <v>213</v>
-      </c>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="49"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>216</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="H18" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="I18" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="J18" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="K18" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="L18" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="H19" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="I19" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="J19" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="K19" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="L19" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="49"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="37" t="s">
+      <c r="B36" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="B20" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="G20" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="H20" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="I20" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="J20" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="K20" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="L20" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="49"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="H21" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="I21" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="J21" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="K21" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="L21" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="H22" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="I22" s="45" t="s">
+      <c r="C36" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="J22" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="K22" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="L22" s="45" t="s">
-        <v>229</v>
-      </c>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="49"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="C23" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="55"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="C24" s="48" t="s">
-        <v>230</v>
-      </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="55"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="C25" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="55"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="55"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="C27" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="55"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="C28" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="55"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="C29" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="55"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="B30" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="C30" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="55"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="B31" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="C31" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="55"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="B32" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="C32" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="55"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="B33" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="C33" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="55"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="B34" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="C34" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="55"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="B35" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="C35" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="55"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="C36" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="55"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="53">
@@ -8955,15 +9148,15 @@
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="N11:O11"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G15:I15"/>
     <mergeCell ref="J15:L15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="E20:F20"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8990,25 +9183,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2">
@@ -9016,25 +9209,25 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3">
@@ -9042,25 +9235,25 @@
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4">
@@ -9068,25 +9261,25 @@
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5">
@@ -9094,19 +9287,19 @@
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6">
@@ -9114,19 +9307,19 @@
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7">
@@ -9134,19 +9327,19 @@
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8">
@@ -9154,7 +9347,7 @@
         <v>32</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -9208,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2">
@@ -9216,7 +9409,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3">
@@ -9224,7 +9417,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4">
@@ -9232,7 +9425,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5">
@@ -9240,7 +9433,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6">
@@ -9248,7 +9441,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7">
@@ -9256,12 +9449,12 @@
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -10273,7 +10466,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2">
@@ -10281,7 +10474,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3">
@@ -10289,7 +10482,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4">
@@ -10297,7 +10490,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5">
@@ -10305,7 +10498,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6">
@@ -10313,24 +10506,24 @@
         <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
     </row>
     <row r="9">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -11343,7 +11536,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2">
@@ -11351,7 +11544,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3">
@@ -11359,7 +11552,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4">
@@ -11367,7 +11560,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5">
@@ -11375,7 +11568,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6">
@@ -11383,7 +11576,7 @@
         <v>33</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7">
@@ -11391,7 +11584,7 @@
         <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8">
@@ -11399,12 +11592,12 @@
         <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>

--- a/Planetarium RTM.xlsx
+++ b/Planetarium RTM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="250">
   <si>
     <t>ID</t>
   </si>
@@ -728,7 +728,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t>the user should not see the logout button</t>
+      <t>the user should stay on the login page</t>
     </r>
   </si>
   <si>
@@ -1796,7 +1796,7 @@
     <t>IPN1</t>
   </si>
   <si>
-    <t>NoPlanet</t>
+    <t>NotPlanet</t>
   </si>
   <si>
     <t>invalid username</t>
@@ -1868,10 +1868,10 @@
     <t>IMN3</t>
   </si>
   <si>
-    <t>invalid moon name alert</t>
-  </si>
-  <si>
-    <t>invalid planet name alert</t>
+    <t>Invalid moon name</t>
+  </si>
+  <si>
+    <t>Invalid planet name</t>
   </si>
   <si>
     <t>IU4</t>
@@ -1904,7 +1904,7 @@
     <t>invalid planet ID</t>
   </si>
   <si>
-    <t>login success</t>
+    <t>login success, redirect to home</t>
   </si>
   <si>
     <t>IFPT1</t>
@@ -1919,7 +1919,7 @@
     <t>IPID1</t>
   </si>
   <si>
-    <t>Invalid Credentials alert</t>
+    <t>Invalid Credentials</t>
   </si>
   <si>
     <t>IP2</t>
@@ -1958,9 +1958,6 @@
     <t>User State</t>
   </si>
   <si>
-    <t>Invalid planet name alert</t>
-  </si>
-  <si>
     <t>IP5</t>
   </si>
   <si>
@@ -1988,19 +1985,19 @@
     <t>IP7</t>
   </si>
   <si>
-    <t>Invalid file type alert</t>
-  </si>
-  <si>
-    <t>invalid planet ID alert</t>
-  </si>
-  <si>
-    <t>Account create successfully alert</t>
-  </si>
-  <si>
-    <t>Invalid username alert</t>
-  </si>
-  <si>
-    <t>Invalid password alert</t>
+    <t>Invalid file type</t>
+  </si>
+  <si>
+    <t>Invalid planet ID</t>
+  </si>
+  <si>
+    <t>Account created successfully</t>
+  </si>
+  <si>
+    <t>Invalid username</t>
+  </si>
+  <si>
+    <t>Invalid password</t>
   </si>
   <si>
     <t>User Requirement</t>
@@ -2279,7 +2276,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2477,6 +2474,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8548,7 +8548,7 @@
       <c r="E14" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="F14" s="51" t="s">
+      <c r="F14" s="57" t="s">
         <v>196</v>
       </c>
       <c r="G14" s="52" t="s">
@@ -8592,7 +8592,7 @@
       <c r="E15" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="F15" s="51" t="s">
+      <c r="F15" s="57" t="s">
         <v>201</v>
       </c>
       <c r="G15" s="60" t="s">
@@ -8626,7 +8626,7 @@
       <c r="E16" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="F16" s="51" t="s">
+      <c r="F16" s="57" t="s">
         <v>201</v>
       </c>
       <c r="G16" s="64" t="s">
@@ -8670,7 +8670,7 @@
       <c r="E17" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="57" t="s">
         <v>201</v>
       </c>
       <c r="G17" s="52" t="s">
@@ -8721,7 +8721,7 @@
         <v>150</v>
       </c>
       <c r="I18" s="59" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="J18" s="54" t="s">
         <v>156</v>
@@ -8741,19 +8741,19 @@
     </row>
     <row r="19">
       <c r="A19" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="B19" s="51" t="s">
         <v>215</v>
-      </c>
-      <c r="B19" s="51" t="s">
-        <v>216</v>
       </c>
       <c r="C19" s="62" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="E19" s="51" t="s">
         <v>217</v>
-      </c>
-      <c r="E19" s="51" t="s">
-        <v>218</v>
       </c>
       <c r="G19" s="52" t="s">
         <v>171</v>
@@ -8762,7 +8762,7 @@
         <v>150</v>
       </c>
       <c r="I19" s="59" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="J19" s="54" t="s">
         <v>173</v>
@@ -8782,19 +8782,19 @@
     </row>
     <row r="20">
       <c r="A20" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="B20" s="51" t="s">
         <v>219</v>
-      </c>
-      <c r="B20" s="51" t="s">
-        <v>220</v>
       </c>
       <c r="C20" s="62" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="E20" s="51" t="s">
         <v>221</v>
-      </c>
-      <c r="E20" s="51" t="s">
-        <v>222</v>
       </c>
       <c r="G20" s="52" t="s">
         <v>181</v>
@@ -8803,7 +8803,7 @@
         <v>150</v>
       </c>
       <c r="I20" s="59" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="J20" s="54" t="s">
         <v>183</v>
@@ -8823,7 +8823,7 @@
     </row>
     <row r="21">
       <c r="A21" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B21" s="51" t="s">
         <v>164</v>
@@ -8841,7 +8841,7 @@
         <v>150</v>
       </c>
       <c r="I21" s="59" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="J21" s="54" t="s">
         <v>189</v>
@@ -8874,7 +8874,7 @@
         <v>197</v>
       </c>
       <c r="I22" s="59" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J22" s="54" t="s">
         <v>139</v>
@@ -8883,7 +8883,7 @@
         <v>200</v>
       </c>
       <c r="L22" s="59" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M22" s="63"/>
       <c r="N22" s="63"/>
@@ -8914,8 +8914,8 @@
       <c r="B24" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="C24" s="62" t="s">
-        <v>226</v>
+      <c r="C24" s="70" t="s">
+        <v>225</v>
       </c>
       <c r="D24" s="68"/>
       <c r="E24" s="68"/>
@@ -8929,8 +8929,8 @@
       <c r="B25" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="62" t="s">
-        <v>227</v>
+      <c r="C25" s="70" t="s">
+        <v>226</v>
       </c>
       <c r="D25" s="68"/>
       <c r="E25" s="68"/>
@@ -8944,8 +8944,8 @@
       <c r="B26" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="C26" s="62" t="s">
-        <v>227</v>
+      <c r="C26" s="70" t="s">
+        <v>226</v>
       </c>
       <c r="D26" s="68"/>
       <c r="E26" s="68"/>
@@ -8959,8 +8959,8 @@
       <c r="B27" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="C27" s="62" t="s">
-        <v>227</v>
+      <c r="C27" s="70" t="s">
+        <v>226</v>
       </c>
       <c r="D27" s="68"/>
       <c r="E27" s="68"/>
@@ -8974,8 +8974,8 @@
       <c r="B28" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="C28" s="62" t="s">
-        <v>227</v>
+      <c r="C28" s="70" t="s">
+        <v>226</v>
       </c>
       <c r="D28" s="68"/>
       <c r="E28" s="68"/>
@@ -8989,8 +8989,8 @@
       <c r="B29" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="62" t="s">
-        <v>227</v>
+      <c r="C29" s="70" t="s">
+        <v>226</v>
       </c>
       <c r="D29" s="68"/>
       <c r="E29" s="68"/>
@@ -9004,8 +9004,8 @@
       <c r="B30" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="C30" s="62" t="s">
-        <v>228</v>
+      <c r="C30" s="70" t="s">
+        <v>227</v>
       </c>
       <c r="D30" s="68"/>
       <c r="E30" s="68"/>
@@ -9019,8 +9019,8 @@
       <c r="B31" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="C31" s="62" t="s">
-        <v>228</v>
+      <c r="C31" s="70" t="s">
+        <v>227</v>
       </c>
       <c r="D31" s="68"/>
       <c r="E31" s="68"/>
@@ -9034,8 +9034,8 @@
       <c r="B32" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="C32" s="62" t="s">
-        <v>228</v>
+      <c r="C32" s="70" t="s">
+        <v>227</v>
       </c>
       <c r="D32" s="68"/>
       <c r="E32" s="68"/>
@@ -9049,8 +9049,8 @@
       <c r="B33" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="C33" s="62" t="s">
-        <v>228</v>
+      <c r="C33" s="70" t="s">
+        <v>227</v>
       </c>
       <c r="D33" s="68"/>
       <c r="E33" s="68"/>
@@ -9062,10 +9062,10 @@
         <v>134</v>
       </c>
       <c r="B34" s="51" t="s">
-        <v>215</v>
-      </c>
-      <c r="C34" s="62" t="s">
-        <v>228</v>
+        <v>214</v>
+      </c>
+      <c r="C34" s="70" t="s">
+        <v>227</v>
       </c>
       <c r="D34" s="68"/>
       <c r="E34" s="68"/>
@@ -9077,10 +9077,10 @@
         <v>134</v>
       </c>
       <c r="B35" s="51" t="s">
-        <v>219</v>
-      </c>
-      <c r="C35" s="62" t="s">
-        <v>228</v>
+        <v>218</v>
+      </c>
+      <c r="C35" s="70" t="s">
+        <v>227</v>
       </c>
       <c r="D35" s="68"/>
       <c r="E35" s="68"/>
@@ -9092,10 +9092,10 @@
         <v>134</v>
       </c>
       <c r="B36" s="51" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="62" t="s">
-        <v>228</v>
+        <v>222</v>
+      </c>
+      <c r="C36" s="70" t="s">
+        <v>227</v>
       </c>
       <c r="D36" s="68"/>
       <c r="E36" s="68"/>
@@ -9189,19 +9189,19 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2">
@@ -9215,19 +9215,19 @@
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3">
@@ -9241,19 +9241,19 @@
         <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4">
@@ -9267,19 +9267,19 @@
         <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5">
@@ -9287,19 +9287,19 @@
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6">
@@ -9307,19 +9307,19 @@
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7">
@@ -9327,19 +9327,19 @@
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8">
@@ -9347,7 +9347,7 @@
         <v>32</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2">
@@ -9409,7 +9409,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3">
@@ -9417,7 +9417,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4">
@@ -9425,7 +9425,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5">
@@ -9433,7 +9433,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6">
@@ -9441,7 +9441,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7">
@@ -9449,7 +9449,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8">
@@ -10466,7 +10466,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2">
@@ -10474,7 +10474,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3">
@@ -10482,7 +10482,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4">
@@ -10490,7 +10490,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5">
@@ -10498,7 +10498,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6">
@@ -10506,15 +10506,15 @@
         <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="8">
@@ -11536,7 +11536,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2">
@@ -11544,7 +11544,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3">
@@ -11552,7 +11552,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4">
@@ -11560,7 +11560,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5">
@@ -11568,7 +11568,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6">
@@ -11576,7 +11576,7 @@
         <v>33</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7">
@@ -11584,7 +11584,7 @@
         <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8">
@@ -11592,7 +11592,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9">
